--- a/biology/Botanique/Rhytidocaulon/Rhytidocaulon.xlsx
+++ b/biology/Botanique/Rhytidocaulon/Rhytidocaulon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Rhytidocaulon est un genre de plante succulente de la famille des asclépiadacées, proche du genre Caralluma. Comme ce dernier, son aire de distribution se répartit entre l'Éthiopie, le Kenya, la Somalie, Oman, l'Arabie saoudite et le Yémen. Elle se distingue des autres asclépiadacées par ses tiges fripées et irrégulières, couvertes de pruine.
 Du grec « rhytidos » fripé, froissé, et « kaulos », tronc. 
@@ -514,9 +526,11 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (21 avr. 2010)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (21 avr. 2010) :
 Rhytidocaulon ciliatum
 Rhytidocaulon fulleri
 Rhytidocaulon macrolobum
